--- a/Facebook_Checklist.xlsx
+++ b/Facebook_Checklist.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TEAM_A" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="397">
   <si>
     <t>Successful sign up upon providing correct/valid data containing First Name,Last Name,email,password,gender,birthdate</t>
   </si>
@@ -1202,12 +1202,45 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>Faisal</t>
+  </si>
+  <si>
+    <t>Waleed Ashraf</t>
+  </si>
+  <si>
+    <t>Umer</t>
+  </si>
+  <si>
+    <t>Arslan</t>
+  </si>
+  <si>
+    <t>Rana Waleed</t>
+  </si>
+  <si>
+    <t>Adeel</t>
+  </si>
+  <si>
+    <t>Total Working hours</t>
+  </si>
+  <si>
+    <t>Lunch Break(total)</t>
+  </si>
+  <si>
+    <t>prayers break(Zohar &amp;Asar)</t>
+  </si>
+  <si>
+    <t>Remaining working hours to complete the task</t>
+  </si>
+  <si>
+    <t>Arslan (Scrum Master)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1297,6 +1330,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1342,7 +1385,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1383,6 +1426,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1390,6 +1436,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1436,7 +1490,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1468,9 +1522,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1502,6 +1557,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1677,14 +1733,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A127" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="117.5703125" style="10" customWidth="1"/>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
@@ -1692,7 +1748,7 @@
     <col min="4" max="4" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>350</v>
       </c>
@@ -1703,1034 +1759,1034 @@
         <v>384</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>351</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>118</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>121</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>122</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>123</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>124</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>125</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>126</v>
       </c>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>127</v>
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
     </row>
-    <row r="28" spans="1:3" ht="15.75">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>352</v>
       </c>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>134</v>
       </c>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
     </row>
-    <row r="40" spans="1:3" ht="15.75">
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
     </row>
-    <row r="41" spans="1:3" ht="15.75">
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>129</v>
       </c>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>128</v>
       </c>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
     </row>
-    <row r="51" spans="1:3" ht="15.75">
+    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
     </row>
-    <row r="62" spans="1:3" ht="15.75">
+    <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
     </row>
-    <row r="66" spans="1:3" ht="15.75">
+    <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>130</v>
       </c>
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>132</v>
       </c>
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>133</v>
       </c>
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>68</v>
       </c>
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>69</v>
       </c>
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>74</v>
       </c>
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B101" s="17"/>
       <c r="C101" s="17"/>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>77</v>
       </c>
       <c r="B102" s="17"/>
       <c r="C102" s="17"/>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B103" s="17"/>
       <c r="C103" s="17"/>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B104" s="17"/>
       <c r="C104" s="17"/>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B106" s="17"/>
       <c r="C106" s="17"/>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>82</v>
       </c>
       <c r="B107" s="17"/>
       <c r="C107" s="17"/>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>83</v>
       </c>
       <c r="B108" s="17"/>
       <c r="C108" s="17"/>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>84</v>
       </c>
       <c r="B109" s="17"/>
       <c r="C109" s="17"/>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B110" s="17"/>
       <c r="C110" s="17"/>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B111" s="17"/>
       <c r="C111" s="17"/>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>86</v>
       </c>
       <c r="B112" s="17"/>
       <c r="C112" s="17"/>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B113" s="17"/>
       <c r="C113" s="17"/>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B114" s="17"/>
       <c r="C114" s="17"/>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>89</v>
       </c>
       <c r="B115" s="17"/>
       <c r="C115" s="17"/>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>90</v>
       </c>
       <c r="B116" s="17"/>
       <c r="C116" s="17"/>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B117" s="17"/>
       <c r="C117" s="17"/>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>91</v>
       </c>
       <c r="B118" s="17"/>
       <c r="C118" s="17"/>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>92</v>
       </c>
       <c r="B119" s="17"/>
       <c r="C119" s="17"/>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>93</v>
       </c>
       <c r="B120" s="17"/>
       <c r="C120" s="17"/>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>94</v>
       </c>
       <c r="B121" s="17"/>
       <c r="C121" s="17"/>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>95</v>
       </c>
       <c r="B122" s="17"/>
       <c r="C122" s="17"/>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>96</v>
       </c>
       <c r="B123" s="17"/>
       <c r="C123" s="17"/>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B124" s="17"/>
       <c r="C124" s="17"/>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>97</v>
       </c>
       <c r="B125" s="17"/>
       <c r="C125" s="17"/>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>98</v>
       </c>
       <c r="B126" s="17"/>
       <c r="C126" s="17"/>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B127" s="17"/>
       <c r="C127" s="17"/>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>100</v>
       </c>
       <c r="B128" s="17"/>
       <c r="C128" s="17"/>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>101</v>
       </c>
       <c r="B129" s="17"/>
       <c r="C129" s="17"/>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>344</v>
       </c>
       <c r="B130" s="17"/>
       <c r="C130" s="17"/>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B131" s="17"/>
       <c r="C131" s="17"/>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B132" s="17"/>
       <c r="C132" s="17"/>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B133" s="17"/>
       <c r="C133" s="17"/>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B134" s="17"/>
       <c r="C134" s="17"/>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B135" s="17"/>
       <c r="C135" s="17"/>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
         <v>106</v>
       </c>
       <c r="B136" s="17"/>
       <c r="C136" s="17"/>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B137" s="17"/>
       <c r="C137" s="17"/>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>108</v>
       </c>
       <c r="B138" s="17"/>
       <c r="C138" s="17"/>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>109</v>
       </c>
       <c r="B139" s="17"/>
       <c r="C139" s="17"/>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>110</v>
       </c>
       <c r="B140" s="17"/>
       <c r="C140" s="17"/>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B141" s="17"/>
       <c r="C141" s="17"/>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B142" s="17"/>
       <c r="C142" s="17"/>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>113</v>
       </c>
       <c r="B143" s="17"/>
       <c r="C143" s="17"/>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B144" s="17"/>
       <c r="C144" s="17"/>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B145" s="17"/>
       <c r="C145" s="17"/>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B146" s="17"/>
       <c r="C146" s="17"/>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>117</v>
       </c>
       <c r="B147" s="17"/>
       <c r="C147" s="17"/>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="17"/>
       <c r="C148" s="17"/>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="12" t="s">
         <v>385</v>
       </c>
@@ -2745,21 +2801,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="93.42578125" style="10" customWidth="1"/>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>354</v>
       </c>
@@ -2770,794 +2826,1288 @@
         <v>384</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>135</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="B3" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="C3" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="B4" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="C4" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="B5" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="C5" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="B6" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="C6" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="B7" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="C7" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="B8" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="C8" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="B9" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="C9" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="B10" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="C10" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="B11" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="C11" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="B12" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="C12" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="B13" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="C13" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="B14" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="C14" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="B15" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="C15" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="C16" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="B17" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="C17" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="B18" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="C18" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="B19" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="C19" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="B20" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="C20" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>154</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="B22" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="C22" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="B23" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="C23" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="B24" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="C24" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="B25" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="C25" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="B26" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="C26" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="B27" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="C27" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="B28" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="C28" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="B29" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="C29" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="B30" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="C30" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="B31" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="C31" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="B32" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="C32" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="B33" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="C33" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="B34" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="C34" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="B35" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="C35" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="B36" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="C36" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="B37" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="C37" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="B38" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="C38" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="B39" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="C39" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="B40" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="C40" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="B41" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="C41" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="B42" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="C42" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="B43" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="C43" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="B44" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="C44" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="B45" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="C45" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="B46" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="C46" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="B47" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="C47" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="B48" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="C48" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="B49" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="C49" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="B50" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="C50" s="17">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="B51" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="C51" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="B52" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="C52" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="B53" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="C53" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="B54" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="C54" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>185</v>
       </c>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="B56" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="C56" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="B57" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="C57" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="B58" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="C58" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="B59" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="C59" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>190</v>
       </c>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="B61" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="C61" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="B62" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="C62" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="B63" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="C63" s="17">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="B64" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="C64" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="B65" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="C65" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="B66" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="C66" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>196</v>
       </c>
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="B68" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="C68" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="B69" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="C69" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="B70" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="C70" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="B71" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="C71" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="B72" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="C72" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="B73" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="C73" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>203</v>
       </c>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="B75" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="C75" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B76" s="17"/>
-      <c r="C76" s="17"/>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="B76" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="C76" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="B77" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="C77" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="B78" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="C78" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="B79" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="C79" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B80" s="17"/>
-      <c r="C80" s="17"/>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="B80" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="C80" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B81" s="17"/>
-      <c r="C81" s="17"/>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="B81" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="C81" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="B82" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="C82" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="B83" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="C83" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>213</v>
       </c>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="B85" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="C85" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="B86" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="C86" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B87" s="17"/>
-      <c r="C87" s="17"/>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="B87" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="C87" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B88" s="17"/>
-      <c r="C88" s="17"/>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="B88" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="C88" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>217</v>
       </c>
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B90" s="17"/>
-      <c r="C90" s="17"/>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="B90" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="C90" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="B91" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="C91" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="B92" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="C92" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B93" s="17"/>
-      <c r="C93" s="17"/>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="B93" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="C93" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B94" s="17"/>
-      <c r="C94" s="17"/>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="B94" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="C94" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="B95" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="C95" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B96" s="17"/>
-      <c r="C96" s="17"/>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="B96" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="C96" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B97" s="17"/>
-      <c r="C97" s="17"/>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="B97" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="C97" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B98" s="17"/>
-      <c r="C98" s="17"/>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="B98" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="C98" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B99" s="17"/>
-      <c r="C99" s="17"/>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="B99" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="C99" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B100" s="17"/>
-      <c r="C100" s="17"/>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="B100" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="C100" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B101" s="17"/>
-      <c r="C101" s="17"/>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="B101" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="C101" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B102" s="17"/>
-      <c r="C102" s="17"/>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="B102" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="C102" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B103" s="17"/>
-      <c r="C103" s="17"/>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="B103" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="C103" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B104" s="17"/>
-      <c r="C104" s="17"/>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="B104" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="C104" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B105" s="17"/>
-      <c r="C105" s="17"/>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="B105" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="C105" s="17">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B106" s="17"/>
-      <c r="C106" s="17"/>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="B106" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="C106" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B107" s="17"/>
-      <c r="C107" s="17"/>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="B107" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="C107" s="17">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B108" s="17"/>
-      <c r="C108" s="17"/>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="B108" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="C108" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B109" s="17"/>
-      <c r="C109" s="17"/>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="B109" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="C109" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B110" s="17"/>
-      <c r="C110" s="17"/>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="B110" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="C110" s="17">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B111" s="17"/>
-      <c r="C111" s="17"/>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="B111" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="C111" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B112" s="17"/>
-      <c r="C112" s="17"/>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="B112" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="C112" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="17"/>
       <c r="C113" s="17"/>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>385</v>
       </c>
       <c r="B114" s="17"/>
-      <c r="C114" s="17"/>
+      <c r="C114" s="17">
+        <v>370.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="C118">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="C119">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="C120">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="C121">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="C122" s="23">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="C123">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="C126">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="C127">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="C128">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="C129">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C1"/>
@@ -3567,21 +4117,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="85.5703125" style="10" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>353</v>
       </c>
@@ -3592,411 +4142,411 @@
         <v>384</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>280</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>281</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>241</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>242</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>243</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>244</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>246</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>247</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>248</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>250</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>251</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>252</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>253</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>254</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>256</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>291</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>292</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>257</v>
       </c>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>258</v>
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>259</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>260</v>
       </c>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>261</v>
       </c>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>262</v>
       </c>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>263</v>
       </c>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>264</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>265</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>266</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>267</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>268</v>
       </c>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>269</v>
       </c>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>270</v>
       </c>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>283</v>
       </c>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>284</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>285</v>
       </c>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>271</v>
       </c>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>272</v>
       </c>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>286</v>
       </c>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>287</v>
       </c>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>288</v>
       </c>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>293</v>
       </c>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>274</v>
       </c>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>276</v>
       </c>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>277</v>
       </c>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>278</v>
       </c>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>289</v>
       </c>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>290</v>
       </c>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>273</v>
       </c>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>274</v>
       </c>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>276</v>
       </c>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>277</v>
       </c>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>385</v>
       </c>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
     </row>
   </sheetData>
@@ -4006,21 +4556,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>370</v>
       </c>
@@ -4031,726 +4581,726 @@
         <v>384</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>371</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>333</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>294</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
     </row>
-    <row r="5" spans="1:3" ht="15.75">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>295</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>296</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>297</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>298</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>299</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>300</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>301</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>302</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>303</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
     </row>
-    <row r="14" spans="1:3" ht="12" customHeight="1">
+    <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>304</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
     </row>
-    <row r="15" spans="1:3" ht="15.75">
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>314</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>296</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>305</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>302</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>303</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>304</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
     </row>
-    <row r="21" spans="1:3" ht="15.75">
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>306</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>296</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>308</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>302</v>
       </c>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>303</v>
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>304</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
     </row>
-    <row r="27" spans="1:3" ht="15.75">
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>307</v>
       </c>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>296</v>
       </c>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>309</v>
       </c>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>302</v>
       </c>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>303</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>304</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>310</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>296</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>309</v>
       </c>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>302</v>
       </c>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>303</v>
       </c>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>304</v>
       </c>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75">
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>311</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>312</v>
       </c>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>302</v>
       </c>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>303</v>
       </c>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>304</v>
       </c>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>315</v>
       </c>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
         <v>316</v>
       </c>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
         <v>317</v>
       </c>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
         <v>318</v>
       </c>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>319</v>
       </c>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>322</v>
       </c>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
         <v>320</v>
       </c>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
         <v>321</v>
       </c>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
         <v>349</v>
       </c>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
         <v>346</v>
       </c>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
         <v>347</v>
       </c>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
         <v>348</v>
       </c>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
         <v>323</v>
       </c>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>324</v>
       </c>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
         <v>331</v>
       </c>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
         <v>325</v>
       </c>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
         <v>328</v>
       </c>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
         <v>326</v>
       </c>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
         <v>327</v>
       </c>
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
         <v>345</v>
       </c>
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
         <v>329</v>
       </c>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
         <v>330</v>
       </c>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
         <v>332</v>
       </c>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
         <v>334</v>
       </c>
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
         <v>335</v>
       </c>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="17" t="s">
         <v>336</v>
       </c>
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
         <v>337</v>
       </c>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
         <v>338</v>
       </c>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
         <v>339</v>
       </c>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="s">
         <v>340</v>
       </c>
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
         <v>341</v>
       </c>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
         <v>342</v>
       </c>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
         <v>343</v>
       </c>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
         <v>313</v>
       </c>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
         <v>355</v>
       </c>
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
         <v>356</v>
       </c>
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
         <v>357</v>
       </c>
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
         <v>358</v>
       </c>
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
         <v>359</v>
       </c>
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="s">
         <v>360</v>
       </c>
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="17" t="s">
         <v>372</v>
       </c>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="17" t="s">
         <v>381</v>
       </c>
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="17" t="s">
         <v>382</v>
       </c>
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="17" t="s">
         <v>361</v>
       </c>
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="17" t="s">
         <v>362</v>
       </c>
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="17" t="s">
         <v>369</v>
       </c>
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="17" t="s">
         <v>363</v>
       </c>
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="17" t="s">
         <v>364</v>
       </c>
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="s">
         <v>365</v>
       </c>
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="17" t="s">
         <v>366</v>
       </c>
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="17" t="s">
         <v>367</v>
       </c>
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="17" t="s">
         <v>368</v>
       </c>
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="20" t="s">
         <v>373</v>
       </c>
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="17" t="s">
         <v>374</v>
       </c>
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="17" t="s">
         <v>375</v>
       </c>
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="s">
         <v>380</v>
       </c>
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="17" t="s">
         <v>376</v>
       </c>
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="17" t="s">
         <v>379</v>
       </c>
       <c r="B101" s="17"/>
       <c r="C101" s="17"/>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="17" t="s">
         <v>377</v>
       </c>
       <c r="B102" s="17"/>
       <c r="C102" s="17"/>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="17" t="s">
         <v>378</v>
       </c>
       <c r="B103" s="17"/>
       <c r="C103" s="17"/>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="17"/>
       <c r="B104" s="17"/>
       <c r="C104" s="17"/>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
         <v>385</v>
       </c>
